--- a/biology/Botanique/Mesembryanthemum_nodiflorum/Mesembryanthemum_nodiflorum.xlsx
+++ b/biology/Botanique/Mesembryanthemum_nodiflorum/Mesembryanthemum_nodiflorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mesembryanthmum nodiflorum, la ficoïde nodiflore, est une plante de la famille des Aïzoacées habitant les zones littorales d'Afrique du Nord, des îles Canaries et du bassin méditerranéen. 
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cryophytum nodiflorum (L.) L. Bolus
 Gasoul nodiflorum (L.) Rothm.</t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante basse annuelle, au feuilles charnues, cylindriques, souvent rouges et aux fleurs blanches ne dépassant pas 8 à 10 mm de diametre[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante basse annuelle, au feuilles charnues, cylindriques, souvent rouges et aux fleurs blanches ne dépassant pas 8 à 10 mm de diametre.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Quelques vues de la plante</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Plante en touffe compacte sur un sol volcanique à Lanzarote.
@@ -606,9 +624,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est probablement originaire d'Afrique du Sud, elle a été dispersée le long des cotes d'Afrique du Nord, depuis les îles de l'Atlantique jusque dans le bassin méditerranéen[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est probablement originaire d'Afrique du Sud, elle a été dispersée le long des cotes d'Afrique du Nord, depuis les îles de l'Atlantique jusque dans le bassin méditerranéen.
 Elle peut être invasive, en Australie et en Amérique ou elle a été introduite.
 </t>
         </is>
